--- a/Manasona4/DATA/CHR/Teki/テキ.xlsx
+++ b/Manasona4/DATA/CHR/Teki/テキ.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="14145" windowHeight="9630"/>
+    <workbookView xWindow="4770" yWindow="810" windowWidth="14145" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$G$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$G$43</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>待機</t>
     <rPh sb="0" eb="2">
@@ -34,13 +34,6 @@
   </si>
   <si>
     <t>攻撃2</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃3</t>
     <rPh sb="0" eb="2">
       <t>コウゲキ</t>
     </rPh>
@@ -157,22 +150,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>オーバードライブ（振り回して打ち上げ）</t>
-    <rPh sb="9" eb="10">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>マワ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ヒーホードライブ始動</t>
     <rPh sb="8" eb="10">
       <t>シドウ</t>
@@ -311,68 +288,6 @@
     <rPh sb="1" eb="2">
       <t>バラ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジャブ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジャブ→ストレート</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無敵</t>
-    <rPh sb="0" eb="2">
-      <t>ムテキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無敵攻撃</t>
-    <rPh sb="0" eb="2">
-      <t>ムテキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カウンター攻撃</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アッパー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>踏み込みジャンプ　すくいあげるパンチ</t>
-    <rPh sb="0" eb="1">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>しゃがみ小パン</t>
-    <rPh sb="4" eb="5">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ドライブ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ダッキング</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カウンター</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -435,30 +350,6 @@
     <t>https://www.youtube.com/watch?v=zXsXwL0KkeM</t>
   </si>
   <si>
-    <t>左</t>
-    <rPh sb="0" eb="1">
-      <t>ヒダリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>右</t>
-    <rPh sb="0" eb="1">
-      <t>ミギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>昇竜拳</t>
-    <rPh sb="0" eb="2">
-      <t>ショウリュウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>片手でつかみ</t>
     <rPh sb="0" eb="2">
       <t>カタテ</t>
@@ -490,16 +381,111 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>待機モーション</t>
-    <rPh sb="0" eb="2">
-      <t>タイキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>仮</t>
     <rPh sb="0" eb="1">
       <t>カリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特殊攻撃（コークスクリュー）</t>
+    <rPh sb="0" eb="2">
+      <t>トクシュ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドライブ（ダッキング）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドライブ（ラッシュダッシュ）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃3(ラッシュ)</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE=ヒットエフェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーバードライブ（昇竜拳）</t>
+    <rPh sb="9" eb="11">
+      <t>ショウリュウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>待機後38Ｆ着地</t>
+    <rPh sb="0" eb="2">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チャクチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無敵(カウンター)</t>
+    <rPh sb="0" eb="2">
+      <t>ムテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キルラッシュ代用</t>
+    <rPh sb="6" eb="8">
+      <t>ダイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドライブ（空中技　着地）</t>
+    <rPh sb="5" eb="7">
+      <t>クウチュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ワザ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チャクチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドライブ（空中技　開始）</t>
+    <rPh sb="5" eb="7">
+      <t>クウチュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ワザ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6・6・6発生以降のHE</t>
+    <rPh sb="5" eb="7">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -508,7 +494,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,8 +526,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -551,12 +545,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,7 +653,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -723,19 +711,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1039,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H56"/>
+  <dimension ref="A3:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1053,31 +1035,35 @@
     <col min="7" max="7" width="54.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G3" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
         <v>0</v>
       </c>
@@ -1092,12 +1078,12 @@
       </c>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.15">
       <c r="A6" s="11">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1107,12 +1093,12 @@
       </c>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="21" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1122,12 +1108,12 @@
       </c>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="21" x14ac:dyDescent="0.15">
       <c r="A8" s="11">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1137,12 +1123,12 @@
       </c>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1152,7 +1138,7 @@
       </c>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.15">
       <c r="A10" s="14">
         <v>5</v>
       </c>
@@ -1166,17 +1152,15 @@
         <v>2</v>
       </c>
       <c r="E10" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" ref="F10:F40" si="0">SUM(C10:E10)</f>
-        <v>24</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.15">
+        <f>SUM(C10:E10)</f>
+        <v>22</v>
+      </c>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="14">
         <v>6</v>
       </c>
@@ -1193,91 +1177,85 @@
         <v>18</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F11:F43" si="0">SUM(C11:E11)</f>
         <v>31</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.15">
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D12" s="2">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E12" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2">
+        <v>22</v>
+      </c>
+      <c r="F13" s="2">
+        <f>SUM(C13:E13)</f>
         <v>42</v>
       </c>
-      <c r="C13" s="2">
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.15">
+      <c r="A14" s="11">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="2">
         <v>12</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D14" s="2">
         <v>16</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E14" s="2">
         <v>37</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F14" s="2">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.15">
-      <c r="A14" s="14">
-        <v>9</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="2">
-        <v>28</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2">
-        <v>15</v>
-      </c>
-      <c r="F14" s="2">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.15">
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2">
         <v>12</v>
@@ -1289,12 +1267,12 @@
       </c>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="21" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" s="2">
         <v>14</v>
@@ -1309,19 +1287,14 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="G16" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="21" x14ac:dyDescent="0.15">
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="15">
         <v>26</v>
@@ -1336,19 +1309,14 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="G17" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="21" x14ac:dyDescent="0.15">
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.15">
       <c r="A18" s="14">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" s="2">
         <v>6</v>
@@ -1363,19 +1331,14 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="G18" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="21" x14ac:dyDescent="0.15">
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.15">
       <c r="A19" s="14">
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2">
         <v>10</v>
@@ -1391,31 +1354,28 @@
         <v>41</v>
       </c>
       <c r="G19" s="16"/>
-      <c r="H19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="21" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:7" ht="21" x14ac:dyDescent="0.15">
       <c r="A20" s="11">
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1425,12 +1385,12 @@
       </c>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="21" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.15">
       <c r="A22" s="11">
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1440,12 +1400,12 @@
       </c>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="21" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.15">
       <c r="A23" s="14">
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" s="2">
         <v>6</v>
@@ -1462,12 +1422,12 @@
       </c>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="21" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.15">
       <c r="A24" s="11">
         <v>19</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -1478,7 +1438,7 @@
       </c>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="1:8" ht="21" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.15">
       <c r="A25" s="14">
         <v>20</v>
       </c>
@@ -1486,175 +1446,176 @@
         <v>48</v>
       </c>
       <c r="C25" s="15">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D25" s="15">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E25" s="15">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F25" s="15">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="21" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.15">
       <c r="A26" s="14">
         <v>21</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="15">
-        <v>145</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="H26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="21" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+      <c r="G26" s="16"/>
+    </row>
+    <row r="27" spans="1:7" ht="21" x14ac:dyDescent="0.15">
       <c r="A27" s="14">
         <v>22</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="C27" s="15">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="D27" s="15">
+        <v>12</v>
+      </c>
+      <c r="E27" s="15">
+        <v>14</v>
+      </c>
+      <c r="F27" s="15">
+        <f>SUM(C27:E27)</f>
+        <v>32</v>
+      </c>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.15">
+      <c r="A28" s="14">
+        <v>23</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="15">
         <v>4</v>
       </c>
-      <c r="E27" s="15">
-        <v>16</v>
-      </c>
-      <c r="F27" s="15">
-        <v>140</v>
-      </c>
-      <c r="G27" s="16" t="s">
+      <c r="D28" s="15">
+        <v>3</v>
+      </c>
+      <c r="E28" s="15">
+        <v>21</v>
+      </c>
+      <c r="F28" s="15">
+        <f>SUM(C28:E28)</f>
+        <v>28</v>
+      </c>
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.15">
+      <c r="A29" s="14">
+        <v>24</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="21" x14ac:dyDescent="0.15">
-      <c r="A28" s="11">
-        <v>23</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="15">
-        <v>15</v>
-      </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="21" x14ac:dyDescent="0.15">
-      <c r="A29" s="11">
+      <c r="C29" s="15">
+        <v>115</v>
+      </c>
+      <c r="D29" s="15">
         <v>24</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
+      <c r="E29" s="15">
+        <v>31</v>
+      </c>
       <c r="F29" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="21" x14ac:dyDescent="0.15">
-      <c r="A30" s="11">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.15">
+      <c r="A30" s="14">
         <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
+        <v>20</v>
+      </c>
+      <c r="C30" s="15">
+        <v>120</v>
+      </c>
+      <c r="D30" s="15">
+        <v>4</v>
+      </c>
+      <c r="E30" s="15">
+        <v>16</v>
+      </c>
       <c r="F30" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="16"/>
-    </row>
-    <row r="31" spans="1:8" ht="21" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="21" x14ac:dyDescent="0.15">
       <c r="A31" s="11">
         <v>26</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C31" s="15">
-        <v>5</v>
-      </c>
-      <c r="D31" s="15">
-        <v>5</v>
-      </c>
-      <c r="E31" s="15">
-        <v>5</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
       <c r="F31" s="15">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G31" s="16"/>
-    </row>
-    <row r="32" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G31" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="21" x14ac:dyDescent="0.15">
       <c r="A32" s="11">
         <v>27</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C32" s="15">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="D32" s="15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E32" s="15">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F32" s="15">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="G32" s="16"/>
+        <v>85</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="33" spans="1:7" ht="21" x14ac:dyDescent="0.15">
       <c r="A33" s="11">
         <v>28</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -1663,72 +1624,82 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G33" s="16" t="s">
-        <v>61</v>
-      </c>
+      <c r="G33" s="16"/>
     </row>
     <row r="34" spans="1:7" ht="21" x14ac:dyDescent="0.15">
       <c r="A34" s="11">
         <v>29</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+        <v>22</v>
+      </c>
+      <c r="C34" s="15">
+        <v>5</v>
+      </c>
+      <c r="D34" s="15">
+        <v>5</v>
+      </c>
+      <c r="E34" s="15">
+        <v>5</v>
+      </c>
       <c r="F34" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G34" s="16"/>
     </row>
-    <row r="35" spans="1:7" ht="21" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="11">
         <v>30</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+        <v>23</v>
+      </c>
+      <c r="C35" s="15">
+        <v>5</v>
+      </c>
+      <c r="D35" s="15">
+        <v>5</v>
+      </c>
+      <c r="E35" s="15">
+        <v>5</v>
+      </c>
       <c r="F35" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>60</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" ht="21" x14ac:dyDescent="0.15">
       <c r="A36" s="11">
         <v>31</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="21" x14ac:dyDescent="0.15">
       <c r="A37" s="11">
         <v>32</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
+        <v>6</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
       <c r="F37" s="15">
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G37" s="16"/>
     </row>
@@ -1737,87 +1708,104 @@
         <v>33</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15">
-        <v>113</v>
-      </c>
-      <c r="G38" s="23" t="s">
-        <v>63</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="21" x14ac:dyDescent="0.15">
       <c r="A39" s="11">
         <v>34</v>
       </c>
-      <c r="B39" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20">
+      <c r="B39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G39" s="21" t="s">
-        <v>62</v>
-      </c>
+      <c r="G39" s="16"/>
     </row>
     <row r="40" spans="1:7" ht="21" x14ac:dyDescent="0.15">
       <c r="A40" s="11">
         <v>35</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+        <v>36</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
       <c r="F40" s="15">
+        <v>32</v>
+      </c>
+      <c r="G40" s="16"/>
+    </row>
+    <row r="41" spans="1:7" ht="21" x14ac:dyDescent="0.15">
+      <c r="A41" s="11">
+        <v>36</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15">
+        <v>113</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="21" x14ac:dyDescent="0.15">
+      <c r="A42" s="11">
+        <v>37</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G40" s="23"/>
-    </row>
-    <row r="41" spans="1:7" ht="21" x14ac:dyDescent="0.15">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="6"/>
-    </row>
-    <row r="42" spans="1:7" ht="21" x14ac:dyDescent="0.15">
-      <c r="A42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="6"/>
-    </row>
-    <row r="43" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A43" s="5"/>
-      <c r="B43" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="18" t="s">
-        <v>53</v>
-      </c>
+      <c r="G42" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="21" x14ac:dyDescent="0.15">
+      <c r="A43" s="11">
+        <v>38</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="20"/>
     </row>
     <row r="44" spans="1:7" ht="21" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
-      <c r="B44" t="s">
-        <v>54</v>
-      </c>
+      <c r="B44" s="5"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -1826,61 +1814,93 @@
     </row>
     <row r="45" spans="1:7" ht="21" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="6"/>
     </row>
-    <row r="46" spans="1:7" ht="21" x14ac:dyDescent="0.15">
-      <c r="A46" s="4"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="6"/>
+    <row r="46" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A46" s="5"/>
+      <c r="B46" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="18" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="47" spans="1:7" ht="21" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
+      <c r="B47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="6"/>
     </row>
     <row r="48" spans="1:7" ht="21" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
-      <c r="B48" s="5"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="4"/>
       <c r="G48" s="6"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B49" s="13"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B50" s="13"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B51" s="13"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" ht="21" x14ac:dyDescent="0.15">
+      <c r="A49" s="4"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" ht="21" x14ac:dyDescent="0.15">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="1:7" ht="21" x14ac:dyDescent="0.15">
+      <c r="A51" s="4"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B52" s="13"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B53" s="13"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B54" s="13"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B55" s="13"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B56" s="13"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B57" s="13"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B58" s="13"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B59" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Manasona4/DATA/CHR/Teki/テキ.xlsx
+++ b/Manasona4/DATA/CHR/Teki/テキ.xlsx
@@ -1023,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A43"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1177,7 +1177,7 @@
         <v>18</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" ref="F11:F43" si="0">SUM(C11:E11)</f>
+        <f t="shared" ref="F11:F42" si="0">SUM(C11:E11)</f>
         <v>31</v>
       </c>
       <c r="G11" s="12"/>
@@ -1471,7 +1471,7 @@
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G26" s="16"/>
     </row>
@@ -1483,17 +1483,17 @@
         <v>57</v>
       </c>
       <c r="C27" s="15">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D27" s="15">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E27" s="15">
         <v>14</v>
       </c>
       <c r="F27" s="15">
         <f>SUM(C27:E27)</f>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G27" s="16"/>
     </row>
@@ -1643,7 +1643,7 @@
         <v>5</v>
       </c>
       <c r="F34" s="15">
-        <f t="shared" si="0"/>
+        <f>SUM(C34:E34)</f>
         <v>15</v>
       </c>
       <c r="G34" s="16"/>
@@ -1665,7 +1665,7 @@
         <v>5</v>
       </c>
       <c r="F35" s="15">
-        <f t="shared" si="0"/>
+        <f>SUM(C35:E35)</f>
         <v>15</v>
       </c>
       <c r="G35" s="16"/>
@@ -1698,8 +1698,7 @@
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G37" s="16"/>
     </row>
@@ -1714,8 +1713,7 @@
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>44</v>
@@ -1732,8 +1730,7 @@
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
       <c r="F39" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G39" s="16"/>
     </row>
@@ -1798,8 +1795,7 @@
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G43" s="20"/>
     </row>
